--- a/July/Others/Price List Update_02.07.2018.xlsx
+++ b/July/Others/Price List Update_02.07.2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -300,26 +300,11 @@
     <t>Liftting</t>
   </si>
   <si>
+    <t xml:space="preserve">                    Symphony Price List                           Date:07.07.19   </t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Robiul: 01751-312831 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Bauhaus 93"/>
-        <family val="5"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
+      <t xml:space="preserve">                                     </t>
     </r>
     <r>
       <rPr>
@@ -607,27 +592,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,9 +603,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -664,6 +625,30 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -994,1182 +979,1182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A3" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:10" s="30" customFormat="1" ht="15.75">
-      <c r="A5" s="26" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" s="23" customFormat="1" ht="15.75">
+      <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="25">
         <v>800</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="25">
         <v>875</v>
       </c>
-      <c r="D6" s="34">
-        <v>10</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35" t="s">
+      <c r="D6" s="26">
+        <v>10</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="25">
         <v>1250</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="25">
         <v>1350</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="25">
         <v>780</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="25">
         <v>840</v>
       </c>
-      <c r="D7" s="34">
-        <v>10</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35" t="s">
+      <c r="D7" s="26">
+        <v>10</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="25">
         <v>1370</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="25">
         <v>1490</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="25">
         <v>865</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="25">
         <v>925</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="25">
         <v>2780</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="25">
         <v>2990</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="25">
         <v>810</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="25">
         <v>880</v>
       </c>
-      <c r="D9" s="34">
-        <v>10</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35" t="s">
+      <c r="D9" s="26">
+        <v>10</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="25">
         <v>6540</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="25">
         <v>6990</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="25">
         <v>800</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="25">
         <v>870</v>
       </c>
-      <c r="D10" s="34">
-        <v>10</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35" t="s">
+      <c r="D10" s="26">
+        <v>10</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="25">
         <v>5290</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="25">
         <v>5690</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="25">
         <v>795</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="25">
         <v>865</v>
       </c>
-      <c r="D11" s="34">
-        <v>10</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="26">
+        <v>10</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="25">
         <v>5470</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="25">
         <v>5890</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="25">
         <v>790</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="25">
         <v>860</v>
       </c>
-      <c r="D12" s="34">
-        <v>10</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35" t="s">
+      <c r="D12" s="26">
+        <v>10</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="25">
         <v>5750</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="25">
         <v>6190</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="25">
         <v>800</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="25">
         <v>860</v>
       </c>
-      <c r="D13" s="34">
-        <v>10</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35" t="s">
+      <c r="D13" s="26">
+        <v>10</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="25">
         <v>5940</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="25">
         <v>6390</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="25">
         <v>970</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="25">
         <v>1060</v>
       </c>
-      <c r="D14" s="34">
-        <v>10</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35" t="s">
+      <c r="D14" s="26">
+        <v>10</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="25">
         <v>6530</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="25">
         <v>6990</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="25">
         <v>900</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="25">
         <v>975</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="25">
         <v>8340</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="25">
         <v>8990</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="26">
         <v>500</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="25">
         <v>915</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="25">
         <v>990</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="25">
         <v>9190</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="25">
         <v>9990</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="26">
         <v>1000</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="26">
         <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="25">
         <v>910</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="25">
         <v>980</v>
       </c>
-      <c r="D17" s="34">
-        <v>10</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35" t="s">
+      <c r="D17" s="26">
+        <v>10</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="25">
         <v>5750</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="25">
         <v>6190</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34">
+      <c r="I17" s="26"/>
+      <c r="J17" s="26">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="25">
         <v>890</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="25">
         <v>970</v>
       </c>
-      <c r="D18" s="34">
-        <v>10</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35" t="s">
+      <c r="D18" s="26">
+        <v>10</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="25">
         <v>4640</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="25">
         <v>4990</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34">
+      <c r="I18" s="26"/>
+      <c r="J18" s="26">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="25">
         <v>920</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="25">
         <v>999</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="25">
         <v>5650</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="25">
         <v>6150</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34">
+      <c r="I19" s="26"/>
+      <c r="J19" s="26">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="25">
         <v>880</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="25">
         <v>950</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="25">
         <v>5020</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="25">
         <v>5390</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="26">
         <v>200</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="25">
         <v>1000</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="25">
         <v>1090</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="25">
         <v>5280</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="25">
         <v>5690</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="26">
         <v>200</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="25">
         <v>995</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="25">
         <v>1075</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="25">
         <v>4820</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="25">
         <v>5190</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="25">
         <v>1000</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="25">
         <v>1090</v>
       </c>
-      <c r="D23" s="34">
-        <v>10</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35" t="s">
+      <c r="D23" s="26">
+        <v>10</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="25">
         <v>5100</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="25">
         <v>5490</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="26">
         <v>70</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="25">
         <v>960</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="25">
         <v>1040</v>
       </c>
-      <c r="D24" s="34">
-        <v>10</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="36" t="s">
+      <c r="D24" s="26">
+        <v>10</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="25">
         <v>5560</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="25">
         <v>5990</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="26">
         <v>200</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="25">
         <v>1040</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="25">
         <v>1120</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="26">
         <v>20</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="25">
         <v>6090</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="25">
         <v>6590</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34">
+      <c r="I25" s="26"/>
+      <c r="J25" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="25">
         <v>930</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="25">
         <v>999</v>
       </c>
-      <c r="D26" s="34">
-        <v>10</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35" t="s">
+      <c r="D26" s="26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="25">
         <v>5390</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="25">
         <v>5790</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34">
+      <c r="I26" s="26"/>
+      <c r="J26" s="26">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="25">
         <v>1290</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="25">
         <v>1390</v>
       </c>
-      <c r="D27" s="34">
-        <v>10</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35" t="s">
+      <c r="D27" s="26">
+        <v>10</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="25">
         <v>3630</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="25">
         <v>3890</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" s="10" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="25">
         <v>1190</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="25">
         <v>1290</v>
       </c>
-      <c r="D28" s="34">
-        <v>10</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35" t="s">
+      <c r="D28" s="26">
+        <v>10</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="25">
         <v>3560</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="25">
         <v>3840</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34">
+      <c r="I28" s="26"/>
+      <c r="J28" s="26">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="25">
         <v>1270</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="25">
         <v>1370</v>
       </c>
-      <c r="D29" s="34">
-        <v>10</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="37" t="s">
+      <c r="D29" s="26">
+        <v>10</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="25">
         <v>3340</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="25">
         <v>3590</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34">
+      <c r="I29" s="26"/>
+      <c r="J29" s="26">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="25">
         <v>1170</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="25">
         <v>1270</v>
       </c>
-      <c r="D30" s="38">
-        <v>10</v>
-      </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="35" t="s">
+      <c r="D30" s="30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="25">
         <v>5390</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="25">
         <v>5790</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34">
+      <c r="I30" s="26"/>
+      <c r="J30" s="26">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="25">
         <v>1190</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="25">
         <v>1290</v>
       </c>
-      <c r="D31" s="39">
-        <v>10</v>
-      </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="35" t="s">
+      <c r="D31" s="31">
+        <v>10</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="25">
         <v>4500</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="25">
         <v>4790</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34">
+      <c r="I31" s="26"/>
+      <c r="J31" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="25">
         <v>1225</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="25">
         <v>1325</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="25">
         <v>4970</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="25">
         <v>5290</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34">
+      <c r="I32" s="26"/>
+      <c r="J32" s="26">
         <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="25">
         <v>1220</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="25">
         <v>1320</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="26">
         <v>20</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="25">
         <v>4015</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="25">
         <v>4390</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="25">
         <v>1080</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="25">
         <v>1160</v>
       </c>
-      <c r="D34" s="34">
-        <v>10</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="40" t="s">
+      <c r="D34" s="26">
+        <v>10</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="25">
         <v>3710</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="25">
         <v>3990</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34">
+      <c r="I34" s="26"/>
+      <c r="J34" s="26">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="25">
         <v>1100</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="25">
         <v>1199</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="26">
         <v>20</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="25">
         <v>3620</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="25">
         <v>3890</v>
       </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="34">
+      <c r="I35" s="30"/>
+      <c r="J35" s="26">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="25">
         <v>1200</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="25">
         <v>1290</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="30">
         <v>20</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="35" t="s">
+      <c r="E36" s="30"/>
+      <c r="F36" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="25">
         <v>4620</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="25">
         <v>4999</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34">
+      <c r="I36" s="26"/>
+      <c r="J36" s="26">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="33">
+      <c r="A37" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="25">
         <v>1120</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="25">
         <v>1220</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="26">
         <v>20</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35" t="s">
+      <c r="E37" s="26"/>
+      <c r="F37" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="25">
         <v>4520</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="25">
         <v>4899</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34">
+      <c r="I37" s="26"/>
+      <c r="J37" s="26">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="25">
         <v>1040</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="25">
         <v>1130</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="26">
         <v>20</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35" t="s">
+      <c r="E38" s="26"/>
+      <c r="F38" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="25">
         <v>4080</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="25">
         <v>4390</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34">
+      <c r="I38" s="26"/>
+      <c r="J38" s="26">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="25">
         <v>1100</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="25">
         <v>1199</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="26">
         <v>20</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35" t="s">
+      <c r="E39" s="26"/>
+      <c r="F39" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="25">
         <v>4220</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="25">
         <v>4540</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34">
+      <c r="I39" s="26"/>
+      <c r="J39" s="26">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="25">
         <v>1100</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="25">
         <v>1199</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="25">
         <v>12240</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="25">
         <v>12990</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34">
+      <c r="I40" s="26"/>
+      <c r="J40" s="26">
         <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="25">
         <v>1050</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="25">
         <v>1130</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="26">
         <v>15</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="25">
         <v>12090</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="25">
         <v>12990</v>
       </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34">
+      <c r="I41" s="26"/>
+      <c r="J41" s="26">
         <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="25">
         <v>1130</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="25">
         <v>1230</v>
       </c>
-      <c r="D42" s="34">
-        <v>10</v>
-      </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35" t="s">
+      <c r="D42" s="26">
+        <v>10</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="25">
         <v>10840</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="25">
         <v>11990</v>
       </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34">
+      <c r="I42" s="26"/>
+      <c r="J42" s="26">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="25">
         <v>1100</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="25">
         <v>1190</v>
       </c>
-      <c r="D43" s="34">
-        <v>10</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35" t="s">
+      <c r="D43" s="26">
+        <v>10</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="25">
         <v>12490</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="25">
         <v>13490</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34">
+      <c r="I43" s="26"/>
+      <c r="J43" s="26">
         <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="25">
         <v>1330</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="25">
         <v>1450</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="25">
         <v>8820</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H44" s="25">
         <v>9490</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="25">
         <v>1200</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="25">
         <v>1299</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="26">
         <v>20</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10">
       <c r="F46" s="6"/>
@@ -2225,60 +2210,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:10" ht="19.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="37.5">
       <c r="A5" s="2" t="s">
@@ -2366,7 +2351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="37.5">
+    <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -2392,7 +2377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="37.5">
+    <row r="9" spans="1:10" ht="18.75">
       <c r="A9" s="11" t="s">
         <v>43</v>
       </c>
@@ -2556,7 +2541,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="37.5">
+    <row r="15" spans="1:10" ht="18.75">
       <c r="A15" s="11" t="s">
         <v>54</v>
       </c>
@@ -3000,7 +2985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="37.5">
+    <row r="31" spans="1:10" ht="18.75">
       <c r="A31" s="13" t="s">
         <v>25</v>
       </c>
@@ -3108,7 +3093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="37.5">
+    <row r="35" spans="1:10" ht="18.75">
       <c r="A35" s="13" t="s">
         <v>7</v>
       </c>
@@ -3220,7 +3205,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="37.5">
+    <row r="39" spans="1:10" ht="18.75">
       <c r="A39" s="13" t="s">
         <v>48</v>
       </c>
@@ -3302,7 +3287,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="37.5">
+    <row r="42" spans="1:10" ht="18.75">
       <c r="A42" s="13" t="s">
         <v>13</v>
       </c>

--- a/July/Others/Price List Update_02.07.2018.xlsx
+++ b/July/Others/Price List Update_02.07.2018.xlsx
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>Liftting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Symphony Price List                           Date:07.07.19   </t>
   </si>
   <si>
     <r>
@@ -337,6 +334,9 @@
       </rPr>
       <t>Office:01715-116767</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Symphony Price List                           Date:14.07.19   </t>
   </si>
 </sst>
 </file>
@@ -959,7 +959,7 @@
   </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J45"/>
     </sheetView>
   </sheetViews>
@@ -980,7 +980,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>

--- a/July/Others/Price List Update_02.07.2018.xlsx
+++ b/July/Others/Price List Update_02.07.2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="94">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -336,7 +336,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                    Symphony Price List                           Date:14.07.19   </t>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>BL97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Symphony Price List                           Date:22.07.19   </t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
       <family val="5"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +558,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,9 +628,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
@@ -649,6 +658,20 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -959,8 +982,8 @@
   </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -979,60 +1002,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="A4" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" s="23" customFormat="1" ht="15.75">
       <c r="A5" s="19" t="s">
@@ -1079,17 +1102,17 @@
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="27" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G6" s="25">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="H6" s="25">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -1107,17 +1130,17 @@
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="27" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G7" s="25">
-        <v>1370</v>
+        <v>1250</v>
       </c>
       <c r="H7" s="25">
-        <v>1490</v>
+        <v>1350</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -1133,17 +1156,17 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G8" s="25">
-        <v>2780</v>
+        <v>1370</v>
       </c>
       <c r="H8" s="25">
-        <v>2990</v>
+        <v>1490</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -1161,17 +1184,17 @@
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" s="25">
-        <v>6540</v>
+        <v>2780</v>
       </c>
       <c r="H9" s="25">
-        <v>6990</v>
+        <v>2990</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -1189,17 +1212,17 @@
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="27" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G10" s="25">
-        <v>5290</v>
+        <v>6540</v>
       </c>
       <c r="H10" s="25">
-        <v>5690</v>
+        <v>6990</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -1217,17 +1240,17 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="27" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="G11" s="25">
-        <v>5470</v>
+        <v>5290</v>
       </c>
       <c r="H11" s="25">
-        <v>5890</v>
+        <v>5690</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -1245,16 +1268,18 @@
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="27" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G12" s="25">
-        <v>5750</v>
+        <v>5470</v>
       </c>
       <c r="H12" s="25">
-        <v>6190</v>
+        <v>5890</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="J12" s="26">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="24" t="s">
@@ -1271,18 +1296,16 @@
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="27" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G13" s="25">
-        <v>5940</v>
+        <v>5750</v>
       </c>
       <c r="H13" s="25">
-        <v>6390</v>
+        <v>6190</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="26">
-        <v>90</v>
-      </c>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="24" t="s">
@@ -1299,16 +1322,18 @@
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="27" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G14" s="25">
-        <v>6530</v>
+        <v>5940</v>
       </c>
       <c r="H14" s="25">
-        <v>6990</v>
+        <v>6390</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="J14" s="26">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="24" t="s">
@@ -1323,20 +1348,16 @@
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="27" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G15" s="25">
-        <v>8340</v>
+        <v>6530</v>
       </c>
       <c r="H15" s="25">
-        <v>8990</v>
-      </c>
-      <c r="I15" s="26">
-        <v>500</v>
-      </c>
-      <c r="J15" s="26">
-        <v>100</v>
-      </c>
+        <v>6990</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="24" t="s">
@@ -1351,19 +1372,19 @@
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="27" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="G16" s="25">
-        <v>9190</v>
+        <v>8340</v>
       </c>
       <c r="H16" s="25">
-        <v>9990</v>
+        <v>8990</v>
       </c>
       <c r="I16" s="26">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J16" s="26">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -1381,17 +1402,19 @@
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="27" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G17" s="25">
-        <v>5750</v>
+        <v>9190</v>
       </c>
       <c r="H17" s="25">
-        <v>6190</v>
-      </c>
-      <c r="I17" s="26"/>
+        <v>9990</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1000</v>
+      </c>
       <c r="J17" s="26">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -1409,13 +1432,13 @@
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="27" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G18" s="25">
-        <v>4640</v>
+        <v>5750</v>
       </c>
       <c r="H18" s="25">
-        <v>4990</v>
+        <v>6190</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26">
@@ -1435,17 +1458,19 @@
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="27" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G19" s="25">
-        <v>5650</v>
+        <v>4640</v>
       </c>
       <c r="H19" s="25">
-        <v>6150</v>
-      </c>
-      <c r="I19" s="26"/>
+        <v>4990</v>
+      </c>
+      <c r="I19" s="26">
+        <v>200</v>
+      </c>
       <c r="J19" s="26">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -1461,44 +1486,44 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="25">
-        <v>5020</v>
+        <v>5650</v>
       </c>
       <c r="H20" s="25">
-        <v>5390</v>
-      </c>
-      <c r="I20" s="26">
-        <v>200</v>
-      </c>
+        <v>6150</v>
+      </c>
+      <c r="I20" s="26"/>
       <c r="J20" s="26">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B21" s="25">
-        <v>1000</v>
+        <v>845</v>
       </c>
       <c r="C21" s="25">
-        <v>1090</v>
-      </c>
-      <c r="D21" s="26"/>
+        <v>910</v>
+      </c>
+      <c r="D21" s="26">
+        <v>20</v>
+      </c>
       <c r="E21" s="26"/>
-      <c r="F21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="25">
-        <v>5280</v>
-      </c>
-      <c r="H21" s="25">
-        <v>5690</v>
-      </c>
-      <c r="I21" s="26">
-        <v>200</v>
+      <c r="F21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="42">
+        <v>5020</v>
+      </c>
+      <c r="H21" s="42">
+        <v>5390</v>
+      </c>
+      <c r="I21" s="43">
+        <v>400</v>
       </c>
       <c r="J21" s="26">
         <v>100</v>
@@ -1506,505 +1531,515 @@
     </row>
     <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="25">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C22" s="25">
-        <v>1075</v>
+        <v>1090</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="27" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="G22" s="25">
-        <v>4820</v>
+        <v>5280</v>
       </c>
       <c r="H22" s="25">
-        <v>5190</v>
-      </c>
-      <c r="I22" s="26"/>
+        <v>5690</v>
+      </c>
+      <c r="I22" s="26">
+        <v>200</v>
+      </c>
       <c r="J22" s="26">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B23" s="25">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C23" s="25">
-        <v>1090</v>
-      </c>
-      <c r="D23" s="26">
-        <v>10</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="27" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G23" s="25">
-        <v>5100</v>
+        <v>4820</v>
       </c>
       <c r="H23" s="25">
-        <v>5490</v>
-      </c>
-      <c r="I23" s="26">
-        <v>70</v>
-      </c>
-      <c r="J23" s="26"/>
+        <v>5190</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="27" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B24" s="25">
-        <v>960</v>
+        <v>880</v>
       </c>
       <c r="C24" s="25">
-        <v>1040</v>
+        <v>950</v>
       </c>
       <c r="D24" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="28" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G24" s="25">
-        <v>5560</v>
+        <v>5100</v>
       </c>
       <c r="H24" s="25">
-        <v>5990</v>
+        <v>5490</v>
       </c>
       <c r="I24" s="26">
-        <v>200</v>
-      </c>
-      <c r="J24" s="26">
-        <v>100</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="25">
+        <v>960</v>
+      </c>
+      <c r="C25" s="25">
         <v>1040</v>
       </c>
-      <c r="C25" s="25">
-        <v>1120</v>
-      </c>
       <c r="D25" s="26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G25" s="25">
-        <v>6090</v>
+        <v>5560</v>
       </c>
       <c r="H25" s="25">
-        <v>6590</v>
-      </c>
-      <c r="I25" s="26"/>
+        <v>5990</v>
+      </c>
+      <c r="I25" s="26">
+        <v>200</v>
+      </c>
       <c r="J25" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B26" s="25">
-        <v>930</v>
+        <v>1040</v>
       </c>
       <c r="C26" s="25">
-        <v>999</v>
+        <v>1120</v>
       </c>
       <c r="D26" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="27" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G26" s="25">
-        <v>5390</v>
+        <v>6090</v>
       </c>
       <c r="H26" s="25">
-        <v>5790</v>
+        <v>6590</v>
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="26">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="27" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B27" s="25">
-        <v>1290</v>
+        <v>930</v>
       </c>
       <c r="C27" s="25">
-        <v>1390</v>
+        <v>999</v>
       </c>
       <c r="D27" s="26">
         <v>10</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="27" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G27" s="25">
-        <v>3630</v>
+        <v>5390</v>
       </c>
       <c r="H27" s="25">
-        <v>3890</v>
+        <v>5790</v>
       </c>
       <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="J27" s="26">
+        <v>120</v>
+      </c>
     </row>
     <row r="28" spans="1:10" s="10" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="27" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B28" s="25">
-        <v>1190</v>
+        <v>1290</v>
       </c>
       <c r="C28" s="25">
-        <v>1290</v>
+        <v>1390</v>
       </c>
       <c r="D28" s="26">
         <v>10</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="27" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G28" s="25">
-        <v>3560</v>
+        <v>3630</v>
       </c>
       <c r="H28" s="25">
-        <v>3840</v>
+        <v>3890</v>
       </c>
       <c r="I28" s="26"/>
-      <c r="J28" s="26">
-        <v>35</v>
-      </c>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="27" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B29" s="25">
-        <v>1270</v>
+        <v>1190</v>
       </c>
       <c r="C29" s="25">
-        <v>1370</v>
+        <v>1290</v>
       </c>
       <c r="D29" s="26">
         <v>10</v>
       </c>
       <c r="E29" s="26"/>
-      <c r="F29" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="25">
-        <v>3340</v>
-      </c>
-      <c r="H29" s="25">
-        <v>3590</v>
-      </c>
-      <c r="I29" s="26"/>
+      <c r="F29" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="42">
+        <v>3560</v>
+      </c>
+      <c r="H29" s="42">
+        <v>3840</v>
+      </c>
+      <c r="I29" s="43">
+        <v>400</v>
+      </c>
       <c r="J29" s="26">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="27" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B30" s="25">
-        <v>1170</v>
+        <v>1270</v>
       </c>
       <c r="C30" s="25">
-        <v>1270</v>
-      </c>
-      <c r="D30" s="30">
-        <v>10</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="25">
-        <v>5390</v>
-      </c>
-      <c r="H30" s="25">
-        <v>5790</v>
-      </c>
-      <c r="I30" s="26"/>
+        <v>1370</v>
+      </c>
+      <c r="D30" s="29">
+        <v>10</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="42">
+        <v>3340</v>
+      </c>
+      <c r="H30" s="42">
+        <v>3590</v>
+      </c>
+      <c r="I30" s="43">
+        <v>320</v>
+      </c>
       <c r="J30" s="26">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="27" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B31" s="25">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="C31" s="25">
-        <v>1290</v>
-      </c>
-      <c r="D31" s="31">
-        <v>10</v>
-      </c>
-      <c r="E31" s="31"/>
+        <v>1270</v>
+      </c>
+      <c r="D31" s="30">
+        <v>10</v>
+      </c>
+      <c r="E31" s="30"/>
       <c r="F31" s="27" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G31" s="25">
-        <v>4500</v>
+        <v>5390</v>
       </c>
       <c r="H31" s="25">
-        <v>4790</v>
+        <v>5790</v>
       </c>
       <c r="I31" s="26"/>
       <c r="J31" s="26">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="27" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B32" s="25">
-        <v>1225</v>
+        <v>1190</v>
       </c>
       <c r="C32" s="25">
-        <v>1325</v>
-      </c>
-      <c r="D32" s="26"/>
+        <v>1290</v>
+      </c>
+      <c r="D32" s="26">
+        <v>10</v>
+      </c>
       <c r="E32" s="26"/>
       <c r="F32" s="27" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G32" s="25">
-        <v>4970</v>
+        <v>4500</v>
       </c>
       <c r="H32" s="25">
-        <v>5290</v>
+        <v>4790</v>
       </c>
       <c r="I32" s="26"/>
       <c r="J32" s="26">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="27" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B33" s="25">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="C33" s="25">
-        <v>1320</v>
-      </c>
-      <c r="D33" s="26">
-        <v>20</v>
-      </c>
+        <v>1325</v>
+      </c>
+      <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="27" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G33" s="25">
-        <v>4015</v>
+        <v>4970</v>
       </c>
       <c r="H33" s="25">
-        <v>4390</v>
+        <v>5290</v>
       </c>
       <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="J33" s="26">
+        <v>130</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="24" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B34" s="25">
-        <v>1080</v>
+        <v>1220</v>
       </c>
       <c r="C34" s="25">
-        <v>1160</v>
+        <v>1320</v>
       </c>
       <c r="D34" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34" s="26"/>
-      <c r="F34" s="32" t="s">
-        <v>35</v>
+      <c r="F34" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="G34" s="25">
-        <v>3710</v>
+        <v>4015</v>
       </c>
       <c r="H34" s="25">
-        <v>3990</v>
+        <v>4390</v>
       </c>
       <c r="I34" s="26"/>
-      <c r="J34" s="26">
-        <v>40</v>
-      </c>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="25">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="C35" s="25">
-        <v>1199</v>
+        <v>1160</v>
       </c>
       <c r="D35" s="26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35" s="26"/>
-      <c r="F35" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="25">
-        <v>3620</v>
-      </c>
-      <c r="H35" s="25">
-        <v>3890</v>
-      </c>
-      <c r="I35" s="30"/>
+      <c r="F35" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="42">
+        <v>3710</v>
+      </c>
+      <c r="H35" s="42">
+        <v>3990</v>
+      </c>
+      <c r="I35" s="44">
+        <v>200</v>
+      </c>
       <c r="J35" s="26">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="27" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B36" s="25">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C36" s="25">
-        <v>1290</v>
-      </c>
-      <c r="D36" s="30">
+        <v>1199</v>
+      </c>
+      <c r="D36" s="29">
         <v>20</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="25">
-        <v>4620</v>
-      </c>
-      <c r="H36" s="25">
-        <v>4999</v>
-      </c>
-      <c r="I36" s="26"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="42">
+        <v>3620</v>
+      </c>
+      <c r="H36" s="42">
+        <v>3890</v>
+      </c>
+      <c r="I36" s="43">
+        <v>320</v>
+      </c>
       <c r="J36" s="26">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="27" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B37" s="25">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="C37" s="25">
-        <v>1220</v>
+        <v>1290</v>
       </c>
       <c r="D37" s="26">
         <v>20</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G37" s="25">
-        <v>4520</v>
+        <v>4620</v>
       </c>
       <c r="H37" s="25">
-        <v>4899</v>
+        <v>4999</v>
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="26">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B38" s="25">
-        <v>1040</v>
+        <v>1120</v>
       </c>
       <c r="C38" s="25">
-        <v>1130</v>
+        <v>1220</v>
       </c>
       <c r="D38" s="26">
         <v>20</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="27" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G38" s="25">
-        <v>4080</v>
+        <v>4520</v>
       </c>
       <c r="H38" s="25">
-        <v>4390</v>
+        <v>4899</v>
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="26">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B39" s="25">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="C39" s="25">
-        <v>1199</v>
+        <v>1130</v>
       </c>
       <c r="D39" s="26">
         <v>20</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="42">
+        <v>4080</v>
+      </c>
+      <c r="H39" s="42">
+        <v>4390</v>
+      </c>
+      <c r="I39" s="43">
+        <v>200</v>
+      </c>
+      <c r="J39" s="26">
         <v>70</v>
-      </c>
-      <c r="G39" s="25">
-        <v>4220</v>
-      </c>
-      <c r="H39" s="25">
-        <v>4540</v>
-      </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="27" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B40" s="25">
         <v>1100</v>
@@ -2012,72 +2047,72 @@
       <c r="C40" s="25">
         <v>1199</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="26">
+        <v>20</v>
+      </c>
       <c r="E40" s="26"/>
       <c r="F40" s="27" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G40" s="25">
-        <v>12240</v>
+        <v>4220</v>
       </c>
       <c r="H40" s="25">
-        <v>12990</v>
+        <v>4540</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="26">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B41" s="25">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="C41" s="25">
-        <v>1130</v>
-      </c>
-      <c r="D41" s="26">
-        <v>15</v>
-      </c>
+        <v>1199</v>
+      </c>
+      <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G41" s="25">
-        <v>12090</v>
+        <v>12240</v>
       </c>
       <c r="H41" s="25">
         <v>12990</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="26">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="27" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B42" s="25">
+        <v>1050</v>
+      </c>
+      <c r="C42" s="25">
         <v>1130</v>
       </c>
-      <c r="C42" s="25">
-        <v>1230</v>
-      </c>
       <c r="D42" s="26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" s="25">
-        <v>10840</v>
+        <v>12090</v>
       </c>
       <c r="H42" s="25">
-        <v>11990</v>
+        <v>12990</v>
       </c>
       <c r="I42" s="26"/>
       <c r="J42" s="26">
@@ -2086,75 +2121,83 @@
     </row>
     <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="25">
-        <v>1100</v>
+        <v>1130</v>
       </c>
       <c r="C43" s="25">
-        <v>1190</v>
+        <v>1230</v>
       </c>
       <c r="D43" s="26">
         <v>10</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" s="25">
-        <v>12490</v>
+        <v>10840</v>
       </c>
       <c r="H43" s="25">
-        <v>13490</v>
+        <v>11990</v>
       </c>
       <c r="I43" s="26"/>
       <c r="J43" s="26">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="27" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B44" s="25">
-        <v>1330</v>
+        <v>1100</v>
       </c>
       <c r="C44" s="25">
-        <v>1450</v>
-      </c>
-      <c r="D44" s="26"/>
+        <v>1190</v>
+      </c>
+      <c r="D44" s="26">
+        <v>10</v>
+      </c>
       <c r="E44" s="26"/>
       <c r="F44" s="27" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="G44" s="25">
-        <v>8820</v>
+        <v>12490</v>
       </c>
       <c r="H44" s="25">
-        <v>9490</v>
+        <v>13490</v>
       </c>
       <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
+      <c r="J44" s="26">
+        <v>300</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="27" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B45" s="25">
-        <v>1200</v>
+        <v>1330</v>
       </c>
       <c r="C45" s="25">
-        <v>1299</v>
-      </c>
-      <c r="D45" s="26">
-        <v>20</v>
-      </c>
+        <v>1450</v>
+      </c>
+      <c r="D45" s="26"/>
       <c r="E45" s="26"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
+      <c r="F45" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="40">
+        <v>8820</v>
+      </c>
+      <c r="H45" s="40">
+        <v>9490</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:10">
       <c r="F46" s="6"/>
@@ -2210,60 +2253,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="19.5">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="37.5">
       <c r="A5" s="2" t="s">

--- a/July/Others/Price List Update_02.07.2018.xlsx
+++ b/July/Others/Price List Update_02.07.2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -306,8 +306,33 @@
     <t>BL97</t>
   </si>
   <si>
+    <t>B65</t>
+  </si>
+  <si>
+    <t>i97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Symphony Price List                           Date:27.07.19   </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">                                     </t>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Robiul:01751-312831</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Bauhaus 93"/>
+        <family val="5"/>
+      </rPr>
+      <t xml:space="preserve">                  </t>
     </r>
     <r>
       <rPr>
@@ -316,7 +341,7 @@
         <rFont val="Bauhaus 93"/>
         <family val="5"/>
       </rPr>
-      <t xml:space="preserve"> Tulip-2   </t>
+      <t xml:space="preserve">Tulip-2   </t>
     </r>
     <r>
       <rPr>
@@ -325,7 +350,7 @@
         <rFont val="Bauhaus 93"/>
         <family val="5"/>
       </rPr>
-      <t xml:space="preserve">        </t>
+      <t xml:space="preserve">            </t>
     </r>
     <r>
       <rPr>
@@ -338,15 +363,6 @@
       <t>Office:01715-116767</t>
     </r>
   </si>
-  <si>
-    <t>B65</t>
-  </si>
-  <si>
-    <t>i97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Symphony Price List                           Date:27.07.19   </t>
-  </si>
 </sst>
 </file>
 
@@ -355,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,13 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="13"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -547,7 +556,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,66 +590,35 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,6 +632,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -963,1246 +971,1200 @@
   </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="O11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" s="18" customFormat="1" ht="15.75">
+      <c r="A5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>800</v>
+      </c>
+      <c r="C6" s="14">
+        <v>875</v>
+      </c>
+      <c r="D6" s="15">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1299</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="14">
+        <v>780</v>
+      </c>
+      <c r="C7" s="14">
+        <v>840</v>
+      </c>
+      <c r="D7" s="15">
+        <v>10</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1250</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1350</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1370</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1490</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="14">
+        <v>810</v>
+      </c>
+      <c r="C9" s="14">
+        <v>880</v>
+      </c>
+      <c r="D9" s="15">
+        <v>10</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="14">
+        <v>2780</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2990</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>800</v>
+      </c>
+      <c r="C10" s="14">
+        <v>870</v>
+      </c>
+      <c r="D10" s="15">
+        <v>10</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="14">
+        <v>6540</v>
+      </c>
+      <c r="H10" s="14">
+        <v>6990</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:10" s="29" customFormat="1" ht="15.75">
-      <c r="A5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18">
+      <c r="B11" s="14">
+        <v>790</v>
+      </c>
+      <c r="C11" s="14">
+        <v>850</v>
+      </c>
+      <c r="D11" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="14">
+        <v>5290</v>
+      </c>
+      <c r="H11" s="14">
+        <v>5690</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <v>790</v>
+      </c>
+      <c r="C12" s="14">
+        <v>860</v>
+      </c>
+      <c r="D12" s="15">
+        <v>10</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="14">
+        <v>5470</v>
+      </c>
+      <c r="H12" s="14">
+        <v>5890</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="14">
         <v>800</v>
       </c>
-      <c r="C6" s="18">
-        <v>875</v>
-      </c>
-      <c r="D6" s="19">
-        <v>10</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17" t="s">
+      <c r="C13" s="14">
+        <v>860</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5750</v>
+      </c>
+      <c r="H13" s="14">
+        <v>6190</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
+        <v>970</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1060</v>
+      </c>
+      <c r="D14" s="15">
+        <v>10</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="14">
+        <v>5940</v>
+      </c>
+      <c r="H14" s="14">
+        <v>6390</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="14">
+        <v>900</v>
+      </c>
+      <c r="C15" s="14">
+        <v>975</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="14">
+        <v>6530</v>
+      </c>
+      <c r="H15" s="14">
+        <v>6990</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="14">
+        <v>915</v>
+      </c>
+      <c r="C16" s="14">
+        <v>990</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="14">
+        <v>6890</v>
+      </c>
+      <c r="H16" s="14">
+        <v>7490</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14">
+        <v>910</v>
+      </c>
+      <c r="C17" s="14">
+        <v>980</v>
+      </c>
+      <c r="D17" s="15">
+        <v>10</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="14">
+        <v>8340</v>
+      </c>
+      <c r="H17" s="14">
+        <v>8990</v>
+      </c>
+      <c r="I17" s="15">
+        <v>500</v>
+      </c>
+      <c r="J17" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="14">
+        <v>890</v>
+      </c>
+      <c r="C18" s="14">
+        <v>970</v>
+      </c>
+      <c r="D18" s="15">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="14">
+        <v>9190</v>
+      </c>
+      <c r="H18" s="14">
+        <v>9990</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="14">
+        <v>920</v>
+      </c>
+      <c r="C19" s="14">
+        <v>999</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="14">
+        <v>5750</v>
+      </c>
+      <c r="H19" s="14">
+        <v>6190</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="14">
+        <v>880</v>
+      </c>
+      <c r="C20" s="14">
+        <v>950</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4640</v>
+      </c>
+      <c r="H20" s="14">
+        <v>4990</v>
+      </c>
+      <c r="I20" s="15">
+        <v>200</v>
+      </c>
+      <c r="J20" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="14">
+        <v>845</v>
+      </c>
+      <c r="C21" s="14">
+        <v>910</v>
+      </c>
+      <c r="D21" s="15">
+        <v>20</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="14">
+        <v>5020</v>
+      </c>
+      <c r="H21" s="14">
+        <v>5390</v>
+      </c>
+      <c r="I21" s="15">
+        <v>400</v>
+      </c>
+      <c r="J21" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1090</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="14">
+        <v>5280</v>
+      </c>
+      <c r="H22" s="14">
+        <v>5690</v>
+      </c>
+      <c r="I22" s="15">
+        <v>200</v>
+      </c>
+      <c r="J22" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="14">
+        <v>995</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1075</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="14">
+        <v>4820</v>
+      </c>
+      <c r="H23" s="14">
+        <v>5190</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="14">
+        <v>880</v>
+      </c>
+      <c r="C24" s="14">
+        <v>950</v>
+      </c>
+      <c r="D24" s="15">
+        <v>20</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="14">
+        <v>5100</v>
+      </c>
+      <c r="H24" s="14">
+        <v>5490</v>
+      </c>
+      <c r="I24" s="15">
+        <v>70</v>
+      </c>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="14">
+        <v>960</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1040</v>
+      </c>
+      <c r="D25" s="15">
+        <v>10</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="14">
+        <v>5560</v>
+      </c>
+      <c r="H25" s="14">
+        <v>5990</v>
+      </c>
+      <c r="I25" s="15">
+        <v>200</v>
+      </c>
+      <c r="J25" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1040</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1120</v>
+      </c>
+      <c r="D26" s="15">
+        <v>20</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="14">
+        <v>6090</v>
+      </c>
+      <c r="H26" s="14">
+        <v>6590</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="14">
+        <v>930</v>
+      </c>
+      <c r="C27" s="14">
+        <v>999</v>
+      </c>
+      <c r="D27" s="15">
+        <v>10</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="14">
+        <v>5390</v>
+      </c>
+      <c r="H27" s="14">
+        <v>5790</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="21" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1290</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1390</v>
+      </c>
+      <c r="D28" s="15">
+        <v>10</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="14">
+        <v>3630</v>
+      </c>
+      <c r="H28" s="14">
+        <v>3890</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1190</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1290</v>
+      </c>
+      <c r="D29" s="15">
+        <v>10</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="14">
+        <v>3560</v>
+      </c>
+      <c r="H29" s="14">
+        <v>3840</v>
+      </c>
+      <c r="I29" s="15">
+        <v>400</v>
+      </c>
+      <c r="J29" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1270</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1370</v>
+      </c>
+      <c r="D30" s="23">
+        <v>10</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="14">
+        <v>3340</v>
+      </c>
+      <c r="H30" s="14">
+        <v>3590</v>
+      </c>
+      <c r="I30" s="15">
+        <v>320</v>
+      </c>
+      <c r="J30" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1170</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1270</v>
+      </c>
+      <c r="D31" s="24">
+        <v>10</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="14">
+        <v>5390</v>
+      </c>
+      <c r="H31" s="14">
+        <v>5790</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="14">
+        <v>1190</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1290</v>
+      </c>
+      <c r="D32" s="15">
+        <v>10</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="14">
+        <v>4500</v>
+      </c>
+      <c r="H32" s="14">
+        <v>4790</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1225</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1325</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="14">
+        <v>4970</v>
+      </c>
+      <c r="H33" s="14">
+        <v>5290</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A34" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="14">
+        <v>1220</v>
+      </c>
+      <c r="C34" s="14">
+        <v>1320</v>
+      </c>
+      <c r="D34" s="15">
+        <v>20</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="14">
+        <v>4015</v>
+      </c>
+      <c r="H34" s="14">
+        <v>4390</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1080</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1160</v>
+      </c>
+      <c r="D35" s="15">
+        <v>10</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="14">
+        <v>3710</v>
+      </c>
+      <c r="H35" s="14">
+        <v>3990</v>
+      </c>
+      <c r="I35" s="23">
+        <v>200</v>
+      </c>
+      <c r="J35" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1100</v>
+      </c>
+      <c r="C36" s="14">
+        <v>1199</v>
+      </c>
+      <c r="D36" s="23">
+        <v>20</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="14">
+        <v>3620</v>
+      </c>
+      <c r="H36" s="14">
+        <v>3890</v>
+      </c>
+      <c r="I36" s="15">
+        <v>320</v>
+      </c>
+      <c r="J36" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="14">
+        <v>1200</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1290</v>
+      </c>
+      <c r="D37" s="15">
+        <v>20</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="14">
+        <v>4080</v>
+      </c>
+      <c r="H37" s="14">
+        <v>4390</v>
+      </c>
+      <c r="I37" s="15">
+        <v>200</v>
+      </c>
+      <c r="J37" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="14">
+        <v>1120</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1220</v>
+      </c>
+      <c r="D38" s="15">
+        <v>20</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="14">
+        <v>4220</v>
+      </c>
+      <c r="H38" s="14">
+        <v>4540</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="14">
+        <v>1040</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1130</v>
+      </c>
+      <c r="D39" s="15">
+        <v>20</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="14">
+        <v>12490</v>
+      </c>
+      <c r="H39" s="14">
+        <v>13490</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="14">
+        <v>1100</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1199</v>
+      </c>
+      <c r="D40" s="15">
+        <v>20</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="14">
+        <v>8820</v>
+      </c>
+      <c r="H40" s="14">
+        <v>9490</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A41" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1100</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1199</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1050</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1130</v>
+      </c>
+      <c r="D42" s="15">
         <v>15</v>
       </c>
-      <c r="G6" s="18">
-        <v>1200</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1299</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="18">
-        <v>780</v>
-      </c>
-      <c r="C7" s="18">
-        <v>840</v>
-      </c>
-      <c r="D7" s="19">
-        <v>10</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1250</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1350</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="18">
-        <v>865</v>
-      </c>
-      <c r="C8" s="18">
-        <v>925</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1370</v>
-      </c>
-      <c r="H8" s="18">
-        <v>1490</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="18">
-        <v>810</v>
-      </c>
-      <c r="C9" s="18">
-        <v>880</v>
-      </c>
-      <c r="D9" s="19">
-        <v>10</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="18">
-        <v>2780</v>
-      </c>
-      <c r="H9" s="18">
-        <v>2990</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18">
-        <v>800</v>
-      </c>
-      <c r="C10" s="18">
-        <v>870</v>
-      </c>
-      <c r="D10" s="19">
-        <v>10</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="18">
-        <v>6540</v>
-      </c>
-      <c r="H10" s="18">
-        <v>6990</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="18">
-        <v>790</v>
-      </c>
-      <c r="C11" s="18">
-        <v>850</v>
-      </c>
-      <c r="D11" s="19">
-        <v>10</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="18">
-        <v>5290</v>
-      </c>
-      <c r="H11" s="18">
-        <v>5690</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18">
-        <v>790</v>
-      </c>
-      <c r="C12" s="18">
-        <v>860</v>
-      </c>
-      <c r="D12" s="19">
-        <v>10</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="18">
-        <v>5470</v>
-      </c>
-      <c r="H12" s="18">
-        <v>5890</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="18">
-        <v>800</v>
-      </c>
-      <c r="C13" s="18">
-        <v>860</v>
-      </c>
-      <c r="D13" s="19">
-        <v>10</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="18">
-        <v>5750</v>
-      </c>
-      <c r="H13" s="18">
-        <v>6190</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="18">
-        <v>970</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1060</v>
-      </c>
-      <c r="D14" s="19">
-        <v>10</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="18">
-        <v>5940</v>
-      </c>
-      <c r="H14" s="18">
-        <v>6390</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="18">
-        <v>900</v>
-      </c>
-      <c r="C15" s="18">
-        <v>975</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="18">
-        <v>6530</v>
-      </c>
-      <c r="H15" s="18">
-        <v>6990</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="18">
-        <v>915</v>
-      </c>
-      <c r="C16" s="18">
-        <v>990</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="18">
-        <v>6890</v>
-      </c>
-      <c r="H16" s="18">
-        <v>7490</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18">
-        <v>910</v>
-      </c>
-      <c r="C17" s="18">
-        <v>980</v>
-      </c>
-      <c r="D17" s="19">
-        <v>10</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="18">
-        <v>8340</v>
-      </c>
-      <c r="H17" s="18">
-        <v>8990</v>
-      </c>
-      <c r="I17" s="19">
-        <v>500</v>
-      </c>
-      <c r="J17" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="18">
-        <v>890</v>
-      </c>
-      <c r="C18" s="18">
-        <v>970</v>
-      </c>
-      <c r="D18" s="19">
-        <v>10</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="18">
-        <v>9190</v>
-      </c>
-      <c r="H18" s="18">
-        <v>9990</v>
-      </c>
-      <c r="I18" s="19">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="19">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="18">
-        <v>920</v>
-      </c>
-      <c r="C19" s="18">
-        <v>999</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="18">
-        <v>5750</v>
-      </c>
-      <c r="H19" s="18">
-        <v>6190</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="18">
-        <v>880</v>
-      </c>
-      <c r="C20" s="18">
-        <v>950</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="18">
-        <v>4640</v>
-      </c>
-      <c r="H20" s="18">
-        <v>4990</v>
-      </c>
-      <c r="I20" s="19">
-        <v>200</v>
-      </c>
-      <c r="J20" s="19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="18">
-        <v>845</v>
-      </c>
-      <c r="C21" s="18">
-        <v>910</v>
-      </c>
-      <c r="D21" s="19">
-        <v>20</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="18">
-        <v>5020</v>
-      </c>
-      <c r="H21" s="18">
-        <v>5390</v>
-      </c>
-      <c r="I21" s="19">
-        <v>400</v>
-      </c>
-      <c r="J21" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C22" s="18">
-        <v>1090</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="18">
-        <v>5280</v>
-      </c>
-      <c r="H22" s="18">
-        <v>5690</v>
-      </c>
-      <c r="I22" s="19">
-        <v>200</v>
-      </c>
-      <c r="J22" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="18">
-        <v>995</v>
-      </c>
-      <c r="C23" s="18">
-        <v>1075</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="18">
-        <v>4820</v>
-      </c>
-      <c r="H23" s="18">
-        <v>5190</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="18">
-        <v>880</v>
-      </c>
-      <c r="C24" s="18">
-        <v>950</v>
-      </c>
-      <c r="D24" s="19">
-        <v>20</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="18">
-        <v>5100</v>
-      </c>
-      <c r="H24" s="18">
-        <v>5490</v>
-      </c>
-      <c r="I24" s="19">
-        <v>70</v>
-      </c>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="18">
-        <v>960</v>
-      </c>
-      <c r="C25" s="18">
-        <v>1040</v>
-      </c>
-      <c r="D25" s="19">
-        <v>10</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="18">
-        <v>5560</v>
-      </c>
-      <c r="H25" s="18">
-        <v>5990</v>
-      </c>
-      <c r="I25" s="19">
-        <v>200</v>
-      </c>
-      <c r="J25" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="18">
-        <v>1040</v>
-      </c>
-      <c r="C26" s="18">
-        <v>1120</v>
-      </c>
-      <c r="D26" s="19">
-        <v>20</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="18">
-        <v>6090</v>
-      </c>
-      <c r="H26" s="18">
-        <v>6590</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="18">
-        <v>930</v>
-      </c>
-      <c r="C27" s="18">
-        <v>999</v>
-      </c>
-      <c r="D27" s="19">
-        <v>10</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="18">
-        <v>5390</v>
-      </c>
-      <c r="H27" s="18">
-        <v>5790</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="32" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="18">
-        <v>1290</v>
-      </c>
-      <c r="C28" s="18">
-        <v>1390</v>
-      </c>
-      <c r="D28" s="19">
-        <v>10</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="18">
-        <v>3630</v>
-      </c>
-      <c r="H28" s="18">
-        <v>3890</v>
-      </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="18">
+      <c r="E42" s="15"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A43" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="14">
+        <v>1130</v>
+      </c>
+      <c r="C43" s="14">
+        <v>1230</v>
+      </c>
+      <c r="D43" s="15">
+        <v>10</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A44" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="14">
+        <v>1100</v>
+      </c>
+      <c r="C44" s="14">
         <v>1190</v>
       </c>
-      <c r="C29" s="18">
-        <v>1290</v>
-      </c>
-      <c r="D29" s="19">
-        <v>10</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="18">
-        <v>3560</v>
-      </c>
-      <c r="H29" s="18">
-        <v>3840</v>
-      </c>
-      <c r="I29" s="19">
-        <v>400</v>
-      </c>
-      <c r="J29" s="19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="18">
-        <v>1270</v>
-      </c>
-      <c r="C30" s="18">
-        <v>1370</v>
-      </c>
-      <c r="D30" s="34">
-        <v>10</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="18">
-        <v>3340</v>
-      </c>
-      <c r="H30" s="18">
-        <v>3590</v>
-      </c>
-      <c r="I30" s="19">
-        <v>320</v>
-      </c>
-      <c r="J30" s="19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="18">
-        <v>1170</v>
-      </c>
-      <c r="C31" s="18">
-        <v>1270</v>
-      </c>
-      <c r="D31" s="35">
-        <v>10</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="18">
-        <v>5390</v>
-      </c>
-      <c r="H31" s="18">
-        <v>5790</v>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19">
+      <c r="D44" s="15">
+        <v>10</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A45" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="18">
-        <v>1190</v>
-      </c>
-      <c r="C32" s="18">
-        <v>1290</v>
-      </c>
-      <c r="D32" s="19">
-        <v>10</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="18">
-        <v>4500</v>
-      </c>
-      <c r="H32" s="18">
-        <v>4790</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="18">
-        <v>1225</v>
-      </c>
-      <c r="C33" s="18">
-        <v>1325</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="18">
-        <v>4970</v>
-      </c>
-      <c r="H33" s="18">
-        <v>5290</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="18">
-        <v>1220</v>
-      </c>
-      <c r="C34" s="18">
-        <v>1320</v>
-      </c>
-      <c r="D34" s="19">
-        <v>20</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="18">
-        <v>4015</v>
-      </c>
-      <c r="H34" s="18">
-        <v>4390</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-    </row>
-    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="18">
-        <v>1080</v>
-      </c>
-      <c r="C35" s="18">
-        <v>1160</v>
-      </c>
-      <c r="D35" s="19">
-        <v>10</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="18">
-        <v>3710</v>
-      </c>
-      <c r="H35" s="18">
-        <v>3990</v>
-      </c>
-      <c r="I35" s="34">
-        <v>200</v>
-      </c>
-      <c r="J35" s="19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="18">
-        <v>1100</v>
-      </c>
-      <c r="C36" s="18">
-        <v>1199</v>
-      </c>
-      <c r="D36" s="34">
-        <v>20</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="18">
-        <v>3620</v>
-      </c>
-      <c r="H36" s="18">
-        <v>3890</v>
-      </c>
-      <c r="I36" s="19">
-        <v>320</v>
-      </c>
-      <c r="J36" s="19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="18">
-        <v>1200</v>
-      </c>
-      <c r="C37" s="18">
-        <v>1290</v>
-      </c>
-      <c r="D37" s="19">
-        <v>20</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="18">
-        <v>4620</v>
-      </c>
-      <c r="H37" s="18">
-        <v>4999</v>
-      </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="18">
-        <v>1120</v>
-      </c>
-      <c r="C38" s="18">
-        <v>1220</v>
-      </c>
-      <c r="D38" s="19">
-        <v>20</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="18">
-        <v>4520</v>
-      </c>
-      <c r="H38" s="18">
-        <v>4899</v>
-      </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="18">
-        <v>1040</v>
-      </c>
-      <c r="C39" s="18">
-        <v>1130</v>
-      </c>
-      <c r="D39" s="19">
-        <v>20</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="18">
-        <v>4080</v>
-      </c>
-      <c r="H39" s="18">
-        <v>4390</v>
-      </c>
-      <c r="I39" s="19">
-        <v>200</v>
-      </c>
-      <c r="J39" s="19">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="18">
-        <v>1100</v>
-      </c>
-      <c r="C40" s="18">
-        <v>1199</v>
-      </c>
-      <c r="D40" s="19">
-        <v>20</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="18">
-        <v>4220</v>
-      </c>
-      <c r="H40" s="18">
-        <v>4540</v>
-      </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="18">
-        <v>1100</v>
-      </c>
-      <c r="C41" s="18">
-        <v>1199</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="18">
-        <v>12240</v>
-      </c>
-      <c r="H41" s="18">
-        <v>12990</v>
-      </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="18">
-        <v>1050</v>
-      </c>
-      <c r="C42" s="18">
-        <v>1130</v>
-      </c>
-      <c r="D42" s="19">
-        <v>15</v>
-      </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="18">
-        <v>12090</v>
-      </c>
-      <c r="H42" s="18">
-        <v>12990</v>
-      </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="18">
-        <v>1130</v>
-      </c>
-      <c r="C43" s="18">
-        <v>1230</v>
-      </c>
-      <c r="D43" s="19">
-        <v>10</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="18">
-        <v>10840</v>
-      </c>
-      <c r="H43" s="18">
-        <v>11990</v>
-      </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="18">
-        <v>1100</v>
-      </c>
-      <c r="C44" s="18">
-        <v>1190</v>
-      </c>
-      <c r="D44" s="19">
-        <v>10</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="18">
-        <v>12490</v>
-      </c>
-      <c r="H44" s="18">
-        <v>13490</v>
-      </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="18">
+      <c r="B45" s="14">
         <v>1330</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="14">
         <v>1450</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="37">
-        <v>8820</v>
-      </c>
-      <c r="H45" s="37">
-        <v>9490</v>
-      </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="80" spans="9:10">
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="38"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2232,60 +2194,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="19.5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="37.5">
       <c r="A5" s="1" t="s">

--- a/July/Others/Price List Update_02.07.2018.xlsx
+++ b/July/Others/Price List Update_02.07.2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="96">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>i97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Symphony Price List                           Date:27.07.19   </t>
   </si>
   <si>
     <r>
@@ -362,6 +359,9 @@
       </rPr>
       <t>Office:01715-116767</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Symphony Price List                           Date:28.07.19   </t>
   </si>
 </sst>
 </file>
@@ -632,6 +632,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,12 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="O11:P11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -991,60 +991,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A3" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="15.75">
       <c r="A5" s="17" t="s">
@@ -1056,10 +1056,10 @@
       <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="17" t="s">
         <v>0</v>
       </c>
@@ -1069,10 +1069,10 @@
       <c r="H5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1091,17 +1091,17 @@
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="13" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G6" s="14">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="H6" s="14">
-        <v>1299</v>
+        <v>1350</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
@@ -1119,129 +1119,137 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="13" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G7" s="14">
-        <v>1250</v>
+        <v>1370</v>
       </c>
       <c r="H7" s="14">
-        <v>1350</v>
+        <v>1490</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="14">
+        <v>810</v>
+      </c>
+      <c r="C8" s="14">
+        <v>880</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="13" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="G8" s="14">
-        <v>1370</v>
+        <v>2780</v>
       </c>
       <c r="H8" s="14">
-        <v>1490</v>
+        <v>2990</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B9" s="14">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="C9" s="14">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="D9" s="15">
         <v>10</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="14">
-        <v>2780</v>
+        <v>6540</v>
       </c>
       <c r="H9" s="14">
-        <v>2990</v>
+        <v>6990</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B10" s="14">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C10" s="14">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="D10" s="15">
         <v>10</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="13" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G10" s="14">
-        <v>6540</v>
+        <v>5290</v>
       </c>
       <c r="H10" s="14">
-        <v>6990</v>
+        <v>5690</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B11" s="14">
         <v>790</v>
       </c>
       <c r="C11" s="14">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="D11" s="15">
         <v>10</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="13" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="G11" s="14">
-        <v>5290</v>
+        <v>5470</v>
       </c>
       <c r="H11" s="14">
-        <v>5690</v>
+        <v>5890</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B12" s="14">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="C12" s="14">
         <v>860</v>
@@ -1251,260 +1259,260 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G12" s="14">
-        <v>5470</v>
+        <v>5750</v>
       </c>
       <c r="H12" s="14">
-        <v>5890</v>
+        <v>6190</v>
       </c>
       <c r="I12" s="15"/>
-      <c r="J12" s="15">
-        <v>70</v>
-      </c>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B13" s="14">
-        <v>800</v>
+        <v>970</v>
       </c>
       <c r="C13" s="14">
-        <v>860</v>
+        <v>1060</v>
       </c>
       <c r="D13" s="15">
         <v>10</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="13" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G13" s="14">
-        <v>5750</v>
+        <v>5940</v>
       </c>
       <c r="H13" s="14">
-        <v>6190</v>
+        <v>6390</v>
       </c>
       <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="15">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="19" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B14" s="14">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="C14" s="14">
-        <v>1060</v>
-      </c>
-      <c r="D14" s="15">
-        <v>10</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="13" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G14" s="14">
-        <v>5940</v>
+        <v>6530</v>
       </c>
       <c r="H14" s="14">
-        <v>6390</v>
+        <v>6990</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="15">
-        <v>90</v>
-      </c>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="14">
-        <v>900</v>
+        <v>915</v>
       </c>
       <c r="C15" s="14">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="13" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G15" s="14">
-        <v>6530</v>
+        <v>6890</v>
       </c>
       <c r="H15" s="14">
-        <v>6990</v>
+        <v>7490</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B16" s="14">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C16" s="14">
-        <v>990</v>
-      </c>
-      <c r="D16" s="15"/>
+        <v>980</v>
+      </c>
+      <c r="D16" s="15">
+        <v>10</v>
+      </c>
       <c r="E16" s="15"/>
       <c r="F16" s="13" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G16" s="14">
-        <v>6890</v>
+        <v>8340</v>
       </c>
       <c r="H16" s="14">
-        <v>7490</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+        <v>8990</v>
+      </c>
+      <c r="I16" s="15">
+        <v>500</v>
+      </c>
+      <c r="J16" s="15">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="14">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="C17" s="14">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="D17" s="15">
         <v>10</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="13" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G17" s="14">
-        <v>8340</v>
+        <v>9190</v>
       </c>
       <c r="H17" s="14">
-        <v>8990</v>
+        <v>9990</v>
       </c>
       <c r="I17" s="15">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="15">
-        <v>100</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B18" s="14">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="C18" s="14">
-        <v>970</v>
-      </c>
-      <c r="D18" s="15">
-        <v>10</v>
-      </c>
+        <v>999</v>
+      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="13" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G18" s="14">
-        <v>9190</v>
+        <v>5750</v>
       </c>
       <c r="H18" s="14">
-        <v>9990</v>
-      </c>
-      <c r="I18" s="15">
-        <v>1000</v>
-      </c>
+        <v>6190</v>
+      </c>
+      <c r="I18" s="15"/>
       <c r="J18" s="15">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B19" s="14">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="C19" s="14">
-        <v>999</v>
+        <v>950</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="13" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G19" s="14">
-        <v>5750</v>
+        <v>4640</v>
       </c>
       <c r="H19" s="14">
-        <v>6190</v>
-      </c>
-      <c r="I19" s="15"/>
+        <v>4990</v>
+      </c>
+      <c r="I19" s="15">
+        <v>200</v>
+      </c>
       <c r="J19" s="15">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B20" s="14">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="C20" s="14">
-        <v>950</v>
-      </c>
-      <c r="D20" s="15"/>
+        <v>910</v>
+      </c>
+      <c r="D20" s="15">
+        <v>20</v>
+      </c>
       <c r="E20" s="15"/>
       <c r="F20" s="13" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G20" s="14">
-        <v>4640</v>
+        <v>5020</v>
       </c>
       <c r="H20" s="14">
-        <v>4990</v>
+        <v>5390</v>
       </c>
       <c r="I20" s="15">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J20" s="15">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B21" s="14">
-        <v>845</v>
+        <v>1000</v>
       </c>
       <c r="C21" s="14">
-        <v>910</v>
-      </c>
-      <c r="D21" s="15">
-        <v>20</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" s="14">
-        <v>5020</v>
+        <v>5280</v>
       </c>
       <c r="H21" s="14">
-        <v>5390</v>
+        <v>5690</v>
       </c>
       <c r="I21" s="15">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J21" s="15">
         <v>100</v>
@@ -1512,515 +1520,513 @@
     </row>
     <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="14">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C22" s="14">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="13" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G22" s="14">
-        <v>5280</v>
+        <v>4820</v>
       </c>
       <c r="H22" s="14">
-        <v>5690</v>
-      </c>
-      <c r="I22" s="15">
-        <v>200</v>
-      </c>
+        <v>5190</v>
+      </c>
+      <c r="I22" s="15"/>
       <c r="J22" s="15">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B23" s="14">
-        <v>995</v>
+        <v>880</v>
       </c>
       <c r="C23" s="14">
-        <v>1075</v>
-      </c>
-      <c r="D23" s="15"/>
+        <v>950</v>
+      </c>
+      <c r="D23" s="15">
+        <v>20</v>
+      </c>
       <c r="E23" s="15"/>
       <c r="F23" s="13" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G23" s="14">
-        <v>4820</v>
+        <v>5100</v>
       </c>
       <c r="H23" s="14">
-        <v>5190</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15">
-        <v>80</v>
-      </c>
+        <v>5490</v>
+      </c>
+      <c r="I23" s="15">
+        <v>70</v>
+      </c>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B24" s="14">
-        <v>880</v>
+        <v>960</v>
       </c>
       <c r="C24" s="14">
-        <v>950</v>
+        <v>1040</v>
       </c>
       <c r="D24" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="20" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G24" s="14">
-        <v>5100</v>
+        <v>5560</v>
       </c>
       <c r="H24" s="14">
-        <v>5490</v>
+        <v>5990</v>
       </c>
       <c r="I24" s="15">
-        <v>70</v>
-      </c>
-      <c r="J24" s="15"/>
+        <v>200</v>
+      </c>
+      <c r="J24" s="15">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="14">
-        <v>960</v>
+        <v>1040</v>
       </c>
       <c r="C25" s="14">
-        <v>1040</v>
+        <v>1120</v>
       </c>
       <c r="D25" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G25" s="14">
-        <v>5560</v>
+        <v>6090</v>
       </c>
       <c r="H25" s="14">
-        <v>5990</v>
-      </c>
-      <c r="I25" s="15">
-        <v>200</v>
-      </c>
+        <v>6590</v>
+      </c>
+      <c r="I25" s="15"/>
       <c r="J25" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B26" s="14">
-        <v>1040</v>
+        <v>930</v>
       </c>
       <c r="C26" s="14">
-        <v>1120</v>
+        <v>999</v>
       </c>
       <c r="D26" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G26" s="14">
-        <v>6090</v>
+        <v>5390</v>
       </c>
       <c r="H26" s="14">
-        <v>6590</v>
+        <v>5790</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B27" s="14">
-        <v>930</v>
+        <v>1290</v>
       </c>
       <c r="C27" s="14">
-        <v>999</v>
+        <v>1390</v>
       </c>
       <c r="D27" s="15">
         <v>10</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="13" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G27" s="14">
-        <v>5390</v>
+        <v>3630</v>
       </c>
       <c r="H27" s="14">
-        <v>5790</v>
+        <v>3890</v>
       </c>
       <c r="I27" s="15"/>
-      <c r="J27" s="15">
-        <v>120</v>
-      </c>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" s="21" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B28" s="14">
+        <v>1190</v>
+      </c>
+      <c r="C28" s="14">
         <v>1290</v>
-      </c>
-      <c r="C28" s="14">
-        <v>1390</v>
       </c>
       <c r="D28" s="15">
         <v>10</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="13" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G28" s="14">
-        <v>3630</v>
+        <v>3560</v>
       </c>
       <c r="H28" s="14">
-        <v>3890</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+        <v>3840</v>
+      </c>
+      <c r="I28" s="15">
+        <v>400</v>
+      </c>
+      <c r="J28" s="15">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B29" s="14">
-        <v>1190</v>
+        <v>1270</v>
       </c>
       <c r="C29" s="14">
-        <v>1290</v>
+        <v>1370</v>
       </c>
       <c r="D29" s="15">
         <v>10</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="22" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G29" s="14">
-        <v>3560</v>
+        <v>3340</v>
       </c>
       <c r="H29" s="14">
-        <v>3840</v>
+        <v>3590</v>
       </c>
       <c r="I29" s="15">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="J29" s="15">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B30" s="14">
+        <v>1170</v>
+      </c>
+      <c r="C30" s="14">
         <v>1270</v>
-      </c>
-      <c r="C30" s="14">
-        <v>1370</v>
       </c>
       <c r="D30" s="23">
         <v>10</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G30" s="14">
-        <v>3340</v>
+        <v>5390</v>
       </c>
       <c r="H30" s="14">
-        <v>3590</v>
-      </c>
-      <c r="I30" s="15">
-        <v>320</v>
-      </c>
+        <v>5790</v>
+      </c>
+      <c r="I30" s="15"/>
       <c r="J30" s="15">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B31" s="14">
-        <v>1170</v>
+        <v>1190</v>
       </c>
       <c r="C31" s="14">
-        <v>1270</v>
+        <v>1290</v>
       </c>
       <c r="D31" s="24">
         <v>10</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="13" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G31" s="14">
-        <v>5390</v>
+        <v>4500</v>
       </c>
       <c r="H31" s="14">
-        <v>5790</v>
+        <v>4790</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B32" s="14">
-        <v>1190</v>
+        <v>1225</v>
       </c>
       <c r="C32" s="14">
-        <v>1290</v>
-      </c>
-      <c r="D32" s="15">
-        <v>10</v>
-      </c>
+        <v>1325</v>
+      </c>
+      <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="13" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G32" s="14">
-        <v>4500</v>
+        <v>4970</v>
       </c>
       <c r="H32" s="14">
-        <v>4790</v>
+        <v>5290</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B33" s="14">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C33" s="14">
-        <v>1325</v>
-      </c>
-      <c r="D33" s="15"/>
+        <v>1320</v>
+      </c>
+      <c r="D33" s="15">
+        <v>20</v>
+      </c>
       <c r="E33" s="15"/>
       <c r="F33" s="13" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G33" s="14">
-        <v>4970</v>
+        <v>4015</v>
       </c>
       <c r="H33" s="14">
-        <v>5290</v>
+        <v>4390</v>
       </c>
       <c r="I33" s="15"/>
-      <c r="J33" s="15">
-        <v>130</v>
-      </c>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B34" s="14">
-        <v>1220</v>
+        <v>1080</v>
       </c>
       <c r="C34" s="14">
-        <v>1320</v>
+        <v>1160</v>
       </c>
       <c r="D34" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="25" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G34" s="14">
-        <v>4015</v>
+        <v>3710</v>
       </c>
       <c r="H34" s="14">
-        <v>4390</v>
-      </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+        <v>3990</v>
+      </c>
+      <c r="I34" s="15">
+        <v>200</v>
+      </c>
+      <c r="J34" s="15">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="14">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="C35" s="14">
-        <v>1160</v>
+        <v>1199</v>
       </c>
       <c r="D35" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="13" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G35" s="14">
-        <v>3710</v>
+        <v>3620</v>
       </c>
       <c r="H35" s="14">
-        <v>3990</v>
+        <v>3890</v>
       </c>
       <c r="I35" s="23">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="J35" s="15">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B36" s="14">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="C36" s="14">
-        <v>1199</v>
+        <v>1290</v>
       </c>
       <c r="D36" s="23">
         <v>20</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="13" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G36" s="14">
-        <v>3620</v>
+        <v>4080</v>
       </c>
       <c r="H36" s="14">
-        <v>3890</v>
+        <v>4390</v>
       </c>
       <c r="I36" s="15">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="J36" s="15">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B37" s="14">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="C37" s="14">
-        <v>1290</v>
+        <v>1220</v>
       </c>
       <c r="D37" s="15">
         <v>20</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="13" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G37" s="14">
-        <v>4080</v>
+        <v>4220</v>
       </c>
       <c r="H37" s="14">
-        <v>4390</v>
-      </c>
-      <c r="I37" s="15">
-        <v>200</v>
-      </c>
+        <v>4540</v>
+      </c>
+      <c r="I37" s="15"/>
       <c r="J37" s="15">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B38" s="14">
-        <v>1120</v>
+        <v>1040</v>
       </c>
       <c r="C38" s="14">
-        <v>1220</v>
+        <v>1130</v>
       </c>
       <c r="D38" s="15">
         <v>20</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="13" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="G38" s="14">
-        <v>4220</v>
+        <v>12490</v>
       </c>
       <c r="H38" s="14">
-        <v>4540</v>
+        <v>13490</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B39" s="14">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="C39" s="14">
-        <v>1130</v>
+        <v>1199</v>
       </c>
       <c r="D39" s="15">
         <v>20</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="13" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G39" s="14">
-        <v>12490</v>
+        <v>8820</v>
       </c>
       <c r="H39" s="14">
-        <v>13490</v>
+        <v>9490</v>
       </c>
       <c r="I39" s="15"/>
-      <c r="J39" s="15">
-        <v>300</v>
-      </c>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B40" s="14">
         <v>1100</v>
@@ -2028,9 +2034,7 @@
       <c r="C40" s="14">
         <v>1199</v>
       </c>
-      <c r="D40" s="15">
-        <v>20</v>
-      </c>
+      <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="13" t="s">
         <v>76</v>
@@ -2046,15 +2050,17 @@
     </row>
     <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B41" s="14">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="C41" s="14">
-        <v>1199</v>
-      </c>
-      <c r="D41" s="15"/>
+        <v>1130</v>
+      </c>
+      <c r="D41" s="15">
+        <v>15</v>
+      </c>
       <c r="E41" s="15"/>
       <c r="F41" s="13"/>
       <c r="G41" s="14"/>
@@ -2064,16 +2070,16 @@
     </row>
     <row r="42" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B42" s="14">
-        <v>1050</v>
+        <v>1130</v>
       </c>
       <c r="C42" s="14">
-        <v>1130</v>
+        <v>1230</v>
       </c>
       <c r="D42" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="13"/>
@@ -2084,13 +2090,13 @@
     </row>
     <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" s="14">
-        <v>1130</v>
+        <v>1100</v>
       </c>
       <c r="C43" s="14">
-        <v>1230</v>
+        <v>1190</v>
       </c>
       <c r="D43" s="15">
         <v>10</v>
@@ -2104,17 +2110,15 @@
     </row>
     <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B44" s="14">
-        <v>1100</v>
+        <v>1330</v>
       </c>
       <c r="C44" s="14">
-        <v>1190</v>
-      </c>
-      <c r="D44" s="15">
-        <v>10</v>
-      </c>
+        <v>1450</v>
+      </c>
+      <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
@@ -2124,15 +2128,17 @@
     </row>
     <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B45" s="14">
-        <v>1330</v>
+        <v>1200</v>
       </c>
       <c r="C45" s="14">
-        <v>1450</v>
-      </c>
-      <c r="D45" s="15"/>
+        <v>1299</v>
+      </c>
+      <c r="D45" s="15">
+        <v>20</v>
+      </c>
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
@@ -2194,60 +2200,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:10" ht="19.5">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="37.5">
       <c r="A5" s="1" t="s">

--- a/July/Others/Price List Update_02.07.2018.xlsx
+++ b/July/Others/Price List Update_02.07.2018.xlsx
@@ -361,7 +361,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                    Symphony Price List                           Date:28.07.19   </t>
+    <t xml:space="preserve">                    Symphony Price List                           Date:29.07.19   </t>
   </si>
 </sst>
 </file>
@@ -971,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
